--- a/tests/fixtures/orderforms/1508.15.mip_balsamic.xlsx
+++ b/tests/fixtures/orderforms/1508.15.mip_balsamic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrikgrenfeldt/Documents/src/cg/tests/fixtures/orderforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E3E07FE-F516-E74D-8995-B4115E51A315}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A624DC5C-7183-9349-A420-6E23CBB082B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4620" yWindow="2640" windowWidth="41060" windowHeight="21100" tabRatio="262" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7580" yWindow="2620" windowWidth="41060" windowHeight="21100" tabRatio="262" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="information" sheetId="5" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="481">
   <si>
     <t>&lt;TABLE HEADER&gt;</t>
   </si>
@@ -1916,6 +1916,9 @@
   </si>
   <si>
     <t>comment</t>
+  </si>
+  <si>
+    <t>other (specify in comment field)</t>
   </si>
 </sst>
 </file>
@@ -3327,6 +3330,7 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3369,7 +3373,6 @@
     <xf numFmtId="0" fontId="12" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="334">
     <cellStyle name="Excel Built-in Normal" xfId="45" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -4192,7 +4195,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -4236,7 +4239,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -4597,8 +4600,8 @@
   </sheetPr>
   <dimension ref="A1:AC428"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:C66"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K5" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="AC19" sqref="AC19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.6640625" defaultRowHeight="13" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -4874,47 +4877,47 @@
       <c r="AC8" s="99"/>
     </row>
     <row r="9" spans="1:29" s="105" customFormat="1" ht="22" customHeight="1" outlineLevel="1">
-      <c r="A9" s="177" t="s">
+      <c r="A9" s="178" t="s">
         <v>104</v>
       </c>
-      <c r="B9" s="178"/>
-      <c r="C9" s="178"/>
-      <c r="D9" s="178"/>
-      <c r="E9" s="178"/>
-      <c r="F9" s="178"/>
-      <c r="G9" s="178"/>
-      <c r="H9" s="178"/>
-      <c r="I9" s="178"/>
-      <c r="J9" s="178"/>
-      <c r="K9" s="179"/>
+      <c r="B9" s="179"/>
+      <c r="C9" s="179"/>
+      <c r="D9" s="179"/>
+      <c r="E9" s="179"/>
+      <c r="F9" s="179"/>
+      <c r="G9" s="179"/>
+      <c r="H9" s="179"/>
+      <c r="I9" s="179"/>
+      <c r="J9" s="179"/>
+      <c r="K9" s="180"/>
       <c r="L9" s="101"/>
-      <c r="M9" s="180" t="s">
+      <c r="M9" s="181" t="s">
         <v>105</v>
       </c>
-      <c r="N9" s="181"/>
+      <c r="N9" s="182"/>
       <c r="O9" s="102"/>
-      <c r="P9" s="183" t="s">
+      <c r="P9" s="184" t="s">
         <v>374</v>
       </c>
-      <c r="Q9" s="184"/>
-      <c r="R9" s="184"/>
-      <c r="S9" s="185"/>
+      <c r="Q9" s="185"/>
+      <c r="R9" s="185"/>
+      <c r="S9" s="186"/>
       <c r="T9" s="103"/>
-      <c r="U9" s="189" t="s">
+      <c r="U9" s="190" t="s">
         <v>363</v>
       </c>
-      <c r="V9" s="190"/>
+      <c r="V9" s="191"/>
       <c r="W9" s="104"/>
-      <c r="X9" s="186" t="s">
+      <c r="X9" s="187" t="s">
         <v>375</v>
       </c>
-      <c r="Y9" s="187"/>
-      <c r="Z9" s="188"/>
+      <c r="Y9" s="188"/>
+      <c r="Z9" s="189"/>
       <c r="AA9" s="103"/>
-      <c r="AB9" s="182" t="s">
+      <c r="AB9" s="183" t="s">
         <v>207</v>
       </c>
-      <c r="AC9" s="182"/>
+      <c r="AC9" s="183"/>
     </row>
     <row r="10" spans="1:29" s="105" customFormat="1" ht="13" hidden="1" customHeight="1">
       <c r="A10" s="106" t="s">
@@ -5299,7 +5302,7 @@
       <c r="R16" s="62"/>
       <c r="S16" s="63"/>
       <c r="T16" s="157"/>
-      <c r="U16" s="191" t="s">
+      <c r="U16" s="177" t="s">
         <v>475</v>
       </c>
       <c r="V16">
@@ -5485,7 +5488,7 @@
       <c r="S19" s="63"/>
       <c r="T19" s="157"/>
       <c r="U19" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="V19">
         <v>25</v>

--- a/tests/fixtures/orderforms/1508.15.mip_balsamic.xlsx
+++ b/tests/fixtures/orderforms/1508.15.mip_balsamic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrikgrenfeldt/Documents/src/cg/tests/fixtures/orderforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A624DC5C-7183-9349-A420-6E23CBB082B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2445507-8E97-A24B-AA8F-91262464A897}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7580" yWindow="2620" windowWidth="41060" windowHeight="21100" tabRatio="262" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1600" yWindow="460" windowWidth="34140" windowHeight="20920" tabRatio="262" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="information" sheetId="5" r:id="rId1"/>
@@ -1335,9 +1335,6 @@
       <t xml:space="preserve">the sample id of the father
 </t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">1508:14 Orderform </t>
   </si>
   <si>
     <r>
@@ -1685,9 +1682,6 @@
     <t>CSP</t>
   </si>
   <si>
-    <t>Emilia Ottosson Laakso</t>
-  </si>
-  <si>
     <t>Valtteri Wirta</t>
   </si>
   <si>
@@ -1726,78 +1720,108 @@
     <t>muscle</t>
   </si>
   <si>
+    <t xml:space="preserve">1508:15 Orderform </t>
+  </si>
+  <si>
+    <t>Anna Gellerbring</t>
+  </si>
+  <si>
+    <t>whole-genome-1</t>
+  </si>
+  <si>
+    <t>whole-genome</t>
+  </si>
+  <si>
+    <t>plate</t>
+  </si>
+  <si>
+    <t>whole-genome-2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>whole-genome-3</t>
+  </si>
+  <si>
+    <t>whole-genome-4</t>
+  </si>
+  <si>
+    <t>whole-genome-5</t>
+  </si>
+  <si>
+    <t>whole-genome-6</t>
+  </si>
+  <si>
+    <t>whole-genome-7</t>
+  </si>
+  <si>
+    <t>whole-genome-8</t>
+  </si>
+  <si>
+    <t>whole-genome-9</t>
+  </si>
+  <si>
+    <t>whole-genome-10</t>
+  </si>
+  <si>
+    <t>whole-exome-1</t>
+  </si>
+  <si>
+    <t>whole-exome</t>
+  </si>
+  <si>
+    <t>whole-exome-2</t>
+  </si>
+  <si>
+    <t>whole-exome-3</t>
+  </si>
+  <si>
+    <t>cancer-capture-panels-1</t>
+  </si>
+  <si>
+    <t>cancer-capture-panels</t>
+  </si>
+  <si>
+    <t>cancer-capture-panels-2</t>
+  </si>
+  <si>
+    <t>cancer-capture-panels-3</t>
+  </si>
+  <si>
+    <t>rna-1</t>
+  </si>
+  <si>
     <t>rna</t>
   </si>
   <si>
-    <t>plate</t>
-  </si>
-  <si>
-    <t>whole-genome</t>
-  </si>
-  <si>
-    <t>whole-exome</t>
-  </si>
-  <si>
-    <t>cancer-capture-panels</t>
-  </si>
-  <si>
-    <t>whole-genome-1</t>
-  </si>
-  <si>
-    <t>whole-genome-2</t>
-  </si>
-  <si>
-    <t>whole-genome-3</t>
-  </si>
-  <si>
-    <t>whole-genome-4</t>
-  </si>
-  <si>
-    <t>whole-genome-5</t>
-  </si>
-  <si>
-    <t>whole-genome-6</t>
-  </si>
-  <si>
-    <t>whole-genome-7</t>
-  </si>
-  <si>
-    <t>whole-genome-8</t>
-  </si>
-  <si>
-    <t>whole-genome-9</t>
-  </si>
-  <si>
-    <t>whole-genome-10</t>
-  </si>
-  <si>
-    <t>whole-exome-1</t>
-  </si>
-  <si>
-    <t>whole-exome-2</t>
-  </si>
-  <si>
-    <t>whole-exome-3</t>
-  </si>
-  <si>
-    <t>cancer-capture-panels-1</t>
-  </si>
-  <si>
-    <t>cancer-capture-panels-2</t>
-  </si>
-  <si>
-    <t>cancer-capture-panels-3</t>
-  </si>
-  <si>
-    <t>rna-1</t>
-  </si>
-  <si>
     <t>rna-2</t>
   </si>
   <si>
+    <t>LymphoMATIC</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>GIcfDNA</t>
+  </si>
+  <si>
+    <t>GMCKsolid</t>
+  </si>
+  <si>
+    <t>GMSmyeloid</t>
+  </si>
+  <si>
+    <t>other (specify in comment field)</t>
+  </si>
+  <si>
     <t>gene-list-test-1</t>
   </si>
   <si>
+    <t>gene-list-test</t>
+  </si>
+  <si>
     <t>gene-list-test-2</t>
   </si>
   <si>
@@ -1895,30 +1919,6 @@
   </si>
   <si>
     <t>gene-list-test-34</t>
-  </si>
-  <si>
-    <t>gene-list-test</t>
-  </si>
-  <si>
-    <t>LymphoMATIC</t>
-  </si>
-  <si>
-    <t>GIcfDNA</t>
-  </si>
-  <si>
-    <t>GMCKsolid</t>
-  </si>
-  <si>
-    <t>GMSmyeloid</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>comment</t>
-  </si>
-  <si>
-    <t>other (specify in comment field)</t>
   </si>
 </sst>
 </file>
@@ -3330,7 +3330,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3373,6 +3372,7 @@
     <xf numFmtId="0" fontId="12" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="334">
     <cellStyle name="Excel Built-in Normal" xfId="45" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -3803,7 +3803,7 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2310553</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>55034</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4195,7 +4195,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -4239,7 +4239,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -4263,8 +4263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="A7" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection sqref="A1:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -4281,7 +4281,7 @@
         <v>22</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>371</v>
+        <v>414</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="2"/>
@@ -4299,7 +4299,7 @@
         <v>23</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>24</v>
@@ -4314,7 +4314,7 @@
         <v>25</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>26</v>
@@ -4325,7 +4325,6 @@
     </row>
     <row r="5" spans="1:5" hidden="1"/>
     <row r="6" spans="1:5" hidden="1"/>
-    <row r="7" spans="1:5" hidden="1"/>
     <row r="14" spans="1:5" ht="19">
       <c r="A14" s="41" t="s">
         <v>250</v>
@@ -4338,27 +4337,27 @@
     </row>
     <row r="16" spans="1:5" ht="14">
       <c r="A16" s="16" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="14">
       <c r="A17" s="16" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="14">
       <c r="A18" s="16" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="14">
       <c r="A19" s="16" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="14">
       <c r="A20" s="16" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="16">
@@ -4378,12 +4377,12 @@
     </row>
     <row r="26" spans="1:1" ht="28">
       <c r="A26" s="36" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="98">
       <c r="A27" s="36" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="36" customHeight="1">
@@ -4398,7 +4397,7 @@
     </row>
     <row r="30" spans="1:1" ht="27" customHeight="1">
       <c r="A30" s="36" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="28">
@@ -4413,7 +4412,7 @@
     </row>
     <row r="33" spans="1:5" ht="52" customHeight="1">
       <c r="A33" s="35" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C33" s="16"/>
       <c r="E33" s="16"/>
@@ -4492,32 +4491,32 @@
     </row>
     <row r="51" spans="1:1" ht="28">
       <c r="A51" s="35" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="14">
       <c r="A52" s="35" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="20" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="14">
       <c r="A56" s="35" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="28" customHeight="1">
       <c r="A57" s="37" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="28" customHeight="1">
       <c r="A58" s="37" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="59" spans="1:1">
@@ -4578,7 +4577,7 @@
       <c r="A80" s="16"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="YC2FrqvxuxCdgPs2rz0v2G7WVpDLnlfsPKGuUC3HUIoAOtq1+GH3+sQFpGgKkaMWpQuALORguIp/pjneAcENiQ==" saltValue="xSK47VJfeSLePxG37PQCnw==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <hyperlinks>
     <hyperlink ref="A14" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
@@ -4600,8 +4599,8 @@
   </sheetPr>
   <dimension ref="A1:AC428"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K5" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="AC19" sqref="AC19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.6640625" defaultRowHeight="13" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -4609,7 +4608,7 @@
     <col min="1" max="1" width="18" style="71" customWidth="1"/>
     <col min="2" max="2" width="8" style="165" customWidth="1"/>
     <col min="3" max="3" width="7.83203125" style="166" customWidth="1"/>
-    <col min="4" max="4" width="21.83203125" style="165" customWidth="1"/>
+    <col min="4" max="4" width="8.5" style="165" customWidth="1"/>
     <col min="5" max="5" width="11.83203125" style="167" customWidth="1"/>
     <col min="6" max="6" width="6.1640625" style="71" customWidth="1"/>
     <col min="7" max="7" width="13.6640625" style="71"/>
@@ -4877,47 +4876,47 @@
       <c r="AC8" s="99"/>
     </row>
     <row r="9" spans="1:29" s="105" customFormat="1" ht="22" customHeight="1" outlineLevel="1">
-      <c r="A9" s="178" t="s">
+      <c r="A9" s="177" t="s">
         <v>104</v>
       </c>
-      <c r="B9" s="179"/>
-      <c r="C9" s="179"/>
-      <c r="D9" s="179"/>
-      <c r="E9" s="179"/>
-      <c r="F9" s="179"/>
-      <c r="G9" s="179"/>
-      <c r="H9" s="179"/>
-      <c r="I9" s="179"/>
-      <c r="J9" s="179"/>
-      <c r="K9" s="180"/>
+      <c r="B9" s="178"/>
+      <c r="C9" s="178"/>
+      <c r="D9" s="178"/>
+      <c r="E9" s="178"/>
+      <c r="F9" s="178"/>
+      <c r="G9" s="178"/>
+      <c r="H9" s="178"/>
+      <c r="I9" s="178"/>
+      <c r="J9" s="178"/>
+      <c r="K9" s="179"/>
       <c r="L9" s="101"/>
-      <c r="M9" s="181" t="s">
+      <c r="M9" s="180" t="s">
         <v>105</v>
       </c>
-      <c r="N9" s="182"/>
+      <c r="N9" s="181"/>
       <c r="O9" s="102"/>
-      <c r="P9" s="184" t="s">
+      <c r="P9" s="183" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q9" s="184"/>
+      <c r="R9" s="184"/>
+      <c r="S9" s="185"/>
+      <c r="T9" s="103"/>
+      <c r="U9" s="189" t="s">
+        <v>363</v>
+      </c>
+      <c r="V9" s="190"/>
+      <c r="W9" s="104"/>
+      <c r="X9" s="186" t="s">
         <v>374</v>
       </c>
-      <c r="Q9" s="185"/>
-      <c r="R9" s="185"/>
-      <c r="S9" s="186"/>
-      <c r="T9" s="103"/>
-      <c r="U9" s="190" t="s">
-        <v>363</v>
-      </c>
-      <c r="V9" s="191"/>
-      <c r="W9" s="104"/>
-      <c r="X9" s="187" t="s">
-        <v>375</v>
-      </c>
-      <c r="Y9" s="188"/>
-      <c r="Z9" s="189"/>
+      <c r="Y9" s="187"/>
+      <c r="Z9" s="188"/>
       <c r="AA9" s="103"/>
-      <c r="AB9" s="183" t="s">
+      <c r="AB9" s="182" t="s">
         <v>207</v>
       </c>
-      <c r="AC9" s="183"/>
+      <c r="AC9" s="182"/>
     </row>
     <row r="10" spans="1:29" s="105" customFormat="1" ht="13" hidden="1" customHeight="1">
       <c r="A10" s="106" t="s">
@@ -5015,13 +5014,13 @@
       </c>
       <c r="W11" s="122"/>
       <c r="X11" s="121" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y11" s="121" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="Z11" s="121" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AA11" s="123"/>
       <c r="AB11" s="109" t="s">
@@ -5120,20 +5119,20 @@
       </c>
       <c r="T13" s="145"/>
       <c r="U13" s="141" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="V13" s="147" t="s">
         <v>307</v>
       </c>
       <c r="W13" s="148"/>
       <c r="X13" s="146" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="Y13" s="149" t="s">
+        <v>384</v>
+      </c>
+      <c r="Z13" s="149" t="s">
         <v>385</v>
-      </c>
-      <c r="Z13" s="149" t="s">
-        <v>386</v>
       </c>
       <c r="AA13" s="150"/>
       <c r="AB13" s="117" t="s">
@@ -5178,19 +5177,19 @@
     </row>
     <row r="15" spans="1:29" s="133" customFormat="1" ht="25" customHeight="1">
       <c r="A15" s="58" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B15" s="56" t="s">
         <v>37</v>
       </c>
       <c r="C15" s="57" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D15" s="30" t="s">
         <v>289</v>
       </c>
       <c r="E15" s="58" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F15" s="57" t="s">
         <v>15</v>
@@ -5212,7 +5211,7 @@
       </c>
       <c r="L15" s="156"/>
       <c r="M15" s="61" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="N15" s="60" t="s">
         <v>27</v>
@@ -5225,14 +5224,14 @@
         <v>312</v>
       </c>
       <c r="R15" s="58" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="S15" s="58" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="T15" s="157"/>
       <c r="U15" t="s">
-        <v>474</v>
+        <v>440</v>
       </c>
       <c r="V15">
         <v>5</v>
@@ -5245,31 +5244,31 @@
         <v>2</v>
       </c>
       <c r="Z15" s="66" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AA15" s="159"/>
       <c r="AB15" s="61" t="s">
-        <v>478</v>
+        <v>420</v>
       </c>
       <c r="AC15" s="61" t="s">
-        <v>479</v>
+        <v>441</v>
       </c>
     </row>
     <row r="16" spans="1:29" s="133" customFormat="1" ht="25" customHeight="1">
       <c r="A16" s="58" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B16" s="56" t="s">
         <v>37</v>
       </c>
       <c r="C16" s="57" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D16" s="30" t="s">
         <v>290</v>
       </c>
       <c r="E16" s="58" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F16" s="57" t="s">
         <v>16</v>
@@ -5302,8 +5301,8 @@
       <c r="R16" s="62"/>
       <c r="S16" s="63"/>
       <c r="T16" s="157"/>
-      <c r="U16" s="177" t="s">
-        <v>475</v>
+      <c r="U16" s="191" t="s">
+        <v>442</v>
       </c>
       <c r="V16">
         <v>10</v>
@@ -5312,7 +5311,7 @@
       <c r="X16" s="65"/>
       <c r="Y16" s="65"/>
       <c r="Z16" s="66" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AA16" s="159"/>
       <c r="AB16" s="61"/>
@@ -5320,19 +5319,19 @@
     </row>
     <row r="17" spans="1:29" s="133" customFormat="1" ht="25" customHeight="1">
       <c r="A17" s="58" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B17" s="56" t="s">
         <v>37</v>
       </c>
       <c r="C17" s="57" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D17" s="30" t="s">
         <v>291</v>
       </c>
       <c r="E17" s="58" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F17" s="57" t="s">
         <v>15</v>
@@ -5366,7 +5365,7 @@
       <c r="S17" s="63"/>
       <c r="T17" s="157"/>
       <c r="U17" t="s">
-        <v>476</v>
+        <v>443</v>
       </c>
       <c r="V17">
         <v>15</v>
@@ -5381,19 +5380,19 @@
     </row>
     <row r="18" spans="1:29" s="133" customFormat="1" ht="25" customHeight="1">
       <c r="A18" s="58" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B18" s="56" t="s">
         <v>37</v>
       </c>
       <c r="C18" s="57" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D18" s="30" t="s">
         <v>292</v>
       </c>
       <c r="E18" s="58" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F18" s="57" t="s">
         <v>77</v>
@@ -5427,7 +5426,7 @@
       <c r="S18" s="63"/>
       <c r="T18" s="157"/>
       <c r="U18" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
       <c r="V18">
         <v>20</v>
@@ -5442,19 +5441,19 @@
     </row>
     <row r="19" spans="1:29" s="133" customFormat="1" ht="25" customHeight="1">
       <c r="A19" s="58" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B19" s="56" t="s">
         <v>37</v>
       </c>
       <c r="C19" s="57" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D19" s="30" t="s">
         <v>293</v>
       </c>
       <c r="E19" s="58" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F19" s="57" t="s">
         <v>77</v>
@@ -5463,7 +5462,7 @@
         <v>94</v>
       </c>
       <c r="H19" s="42" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="I19" s="21" t="s">
         <v>103</v>
@@ -5488,7 +5487,7 @@
       <c r="S19" s="63"/>
       <c r="T19" s="157"/>
       <c r="U19" t="s">
-        <v>480</v>
+        <v>445</v>
       </c>
       <c r="V19">
         <v>25</v>
@@ -5503,19 +5502,19 @@
     </row>
     <row r="20" spans="1:29" s="133" customFormat="1" ht="25" customHeight="1">
       <c r="A20" s="58" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B20" s="56" t="s">
         <v>37</v>
       </c>
       <c r="C20" s="57" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D20" s="30" t="s">
         <v>294</v>
       </c>
       <c r="E20" s="58" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F20" s="57" t="s">
         <v>77</v>
@@ -5549,7 +5548,7 @@
       <c r="S20" s="63"/>
       <c r="T20" s="157"/>
       <c r="U20" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
       <c r="V20">
         <v>30</v>
@@ -5564,19 +5563,19 @@
     </row>
     <row r="21" spans="1:29" s="133" customFormat="1" ht="25" customHeight="1">
       <c r="A21" s="58" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B21" s="56" t="s">
         <v>37</v>
       </c>
       <c r="C21" s="57" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D21" s="30" t="s">
         <v>295</v>
       </c>
       <c r="E21" s="58" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F21" s="57" t="s">
         <v>77</v>
@@ -5610,7 +5609,7 @@
       <c r="S21" s="63"/>
       <c r="T21" s="157"/>
       <c r="U21" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
       <c r="V21">
         <v>35</v>
@@ -5625,19 +5624,19 @@
     </row>
     <row r="22" spans="1:29" s="133" customFormat="1" ht="25" customHeight="1">
       <c r="A22" s="58" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B22" s="56" t="s">
         <v>37</v>
       </c>
       <c r="C22" s="57" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D22" s="30" t="s">
         <v>296</v>
       </c>
       <c r="E22" s="58" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F22" s="57" t="s">
         <v>77</v>
@@ -5671,7 +5670,7 @@
       <c r="S22" s="63"/>
       <c r="T22" s="157"/>
       <c r="U22" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
       <c r="V22">
         <v>40</v>
@@ -5686,19 +5685,19 @@
     </row>
     <row r="23" spans="1:29" ht="25" customHeight="1">
       <c r="A23" s="58" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B23" s="56" t="s">
         <v>37</v>
       </c>
       <c r="C23" s="57" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D23" s="30" t="s">
         <v>297</v>
       </c>
       <c r="E23" s="58" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F23" s="57" t="s">
         <v>77</v>
@@ -5732,7 +5731,7 @@
       <c r="S23" s="63"/>
       <c r="T23" s="157"/>
       <c r="U23" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
       <c r="V23">
         <v>45</v>
@@ -5747,19 +5746,19 @@
     </row>
     <row r="24" spans="1:29" ht="25" customHeight="1">
       <c r="A24" s="58" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B24" s="56" t="s">
         <v>37</v>
       </c>
       <c r="C24" s="57" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D24" s="30" t="s">
         <v>298</v>
       </c>
       <c r="E24" s="58" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F24" s="57" t="s">
         <v>77</v>
@@ -5768,7 +5767,7 @@
         <v>94</v>
       </c>
       <c r="H24" s="176" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I24" s="21" t="s">
         <v>103</v>
@@ -5793,7 +5792,7 @@
       <c r="S24" s="63"/>
       <c r="T24" s="157"/>
       <c r="U24" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
       <c r="V24">
         <v>50</v>
@@ -5808,19 +5807,19 @@
     </row>
     <row r="25" spans="1:29" ht="25" customHeight="1">
       <c r="A25" s="58" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B25" s="56" t="s">
         <v>37</v>
       </c>
       <c r="C25" s="57" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D25" s="30" t="s">
         <v>285</v>
       </c>
       <c r="E25" s="58" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="F25" s="57" t="s">
         <v>77</v>
@@ -5829,7 +5828,7 @@
         <v>94</v>
       </c>
       <c r="H25" s="176" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I25" s="21" t="s">
         <v>103</v>
@@ -5854,7 +5853,7 @@
       <c r="S25" s="63"/>
       <c r="T25" s="157"/>
       <c r="U25" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
       <c r="V25">
         <v>55</v>
@@ -5869,19 +5868,19 @@
     </row>
     <row r="26" spans="1:29" ht="25" customHeight="1">
       <c r="A26" s="58" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B26" s="56" t="s">
         <v>37</v>
       </c>
       <c r="C26" s="57" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E26" s="58" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="F26" s="57" t="s">
         <v>77</v>
@@ -5915,7 +5914,7 @@
       <c r="S26" s="63"/>
       <c r="T26" s="157"/>
       <c r="U26" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
       <c r="V26">
         <v>60</v>
@@ -5930,19 +5929,19 @@
     </row>
     <row r="27" spans="1:29" s="160" customFormat="1" ht="25" customHeight="1">
       <c r="A27" s="58" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B27" s="56" t="s">
         <v>37</v>
       </c>
       <c r="C27" s="57" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D27" s="53" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E27" s="58" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="F27" s="57" t="s">
         <v>77</v>
@@ -5951,7 +5950,7 @@
         <v>94</v>
       </c>
       <c r="H27" s="176" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I27" s="21" t="s">
         <v>103</v>
@@ -5967,7 +5966,7 @@
       <c r="N27" s="60"/>
       <c r="O27" s="156"/>
       <c r="P27" s="172" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="Q27" s="59" t="s">
         <v>77</v>
@@ -5976,7 +5975,7 @@
       <c r="S27" s="63"/>
       <c r="T27" s="157"/>
       <c r="U27" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
       <c r="V27">
         <v>65</v>
@@ -5991,19 +5990,19 @@
     </row>
     <row r="28" spans="1:29" s="160" customFormat="1" ht="25" customHeight="1">
       <c r="A28" s="58" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B28" s="56" t="s">
         <v>37</v>
       </c>
       <c r="C28" s="57" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E28" s="58" t="s">
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="F28" s="57" t="s">
         <v>77</v>
@@ -6012,7 +6011,7 @@
         <v>94</v>
       </c>
       <c r="H28" s="176" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I28" s="21" t="s">
         <v>103</v>
@@ -6037,7 +6036,7 @@
       <c r="S28" s="63"/>
       <c r="T28" s="157"/>
       <c r="U28" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
       <c r="V28">
         <v>70</v>
@@ -6058,13 +6057,13 @@
         <v>37</v>
       </c>
       <c r="C29" s="57" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D29" s="30" t="s">
         <v>251</v>
       </c>
       <c r="E29" s="58" t="s">
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="F29" s="57" t="s">
         <v>77</v>
@@ -6073,7 +6072,7 @@
         <v>94</v>
       </c>
       <c r="H29" s="176" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I29" s="21" t="s">
         <v>103</v>
@@ -6098,7 +6097,7 @@
       <c r="S29" s="63"/>
       <c r="T29" s="157"/>
       <c r="U29" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
       <c r="V29">
         <v>75</v>
@@ -6119,13 +6118,13 @@
         <v>37</v>
       </c>
       <c r="C30" s="57" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E30" s="58" t="s">
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="F30" s="57" t="s">
         <v>77</v>
@@ -6134,7 +6133,7 @@
         <v>94</v>
       </c>
       <c r="H30" s="176" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I30" s="21" t="s">
         <v>103</v>
@@ -6159,7 +6158,7 @@
       <c r="S30" s="63"/>
       <c r="T30" s="157"/>
       <c r="U30" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
       <c r="V30">
         <v>80</v>
@@ -6180,13 +6179,13 @@
         <v>37</v>
       </c>
       <c r="C31" s="57" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D31" s="30" t="s">
         <v>300</v>
       </c>
       <c r="E31" s="58" t="s">
-        <v>416</v>
+        <v>438</v>
       </c>
       <c r="F31" s="57" t="s">
         <v>77</v>
@@ -6195,7 +6194,7 @@
         <v>94</v>
       </c>
       <c r="H31" s="176" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I31" s="21" t="s">
         <v>103</v>
@@ -6220,7 +6219,7 @@
       <c r="S31" s="63"/>
       <c r="T31" s="157"/>
       <c r="U31" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
       <c r="V31">
         <v>85</v>
@@ -6235,19 +6234,19 @@
     </row>
     <row r="32" spans="1:29" s="160" customFormat="1" ht="25" customHeight="1">
       <c r="A32" s="58" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B32" s="56" t="s">
         <v>37</v>
       </c>
       <c r="C32" s="57" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D32" s="30" t="s">
         <v>301</v>
       </c>
       <c r="E32" s="58" t="s">
-        <v>416</v>
+        <v>438</v>
       </c>
       <c r="F32" s="57" t="s">
         <v>77</v>
@@ -6256,7 +6255,7 @@
         <v>94</v>
       </c>
       <c r="H32" s="176" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I32" s="21" t="s">
         <v>103</v>
@@ -6281,7 +6280,7 @@
       <c r="S32" s="63"/>
       <c r="T32" s="157"/>
       <c r="U32" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
       <c r="V32">
         <v>90</v>
@@ -6296,19 +6295,19 @@
     </row>
     <row r="33" spans="1:29" s="160" customFormat="1" ht="25" customHeight="1">
       <c r="A33" s="40" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="B33" s="56" t="s">
         <v>37</v>
       </c>
       <c r="C33" s="57" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D33" s="30" t="s">
         <v>290</v>
       </c>
       <c r="E33" s="58" t="s">
-        <v>473</v>
+        <v>447</v>
       </c>
       <c r="F33" s="57" t="s">
         <v>77</v>
@@ -6317,7 +6316,7 @@
         <v>94</v>
       </c>
       <c r="H33" s="176" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I33" s="21" t="s">
         <v>103</v>
@@ -6342,7 +6341,7 @@
       <c r="S33" s="63"/>
       <c r="T33" s="157"/>
       <c r="U33" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
       <c r="V33">
         <v>95</v>
@@ -6357,19 +6356,19 @@
     </row>
     <row r="34" spans="1:29" s="160" customFormat="1" ht="25" customHeight="1">
       <c r="A34" s="40" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="B34" s="56" t="s">
         <v>37</v>
       </c>
       <c r="C34" s="57" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D34" s="30" t="s">
         <v>290</v>
       </c>
       <c r="E34" s="58" t="s">
-        <v>473</v>
+        <v>447</v>
       </c>
       <c r="F34" s="57" t="s">
         <v>77</v>
@@ -6378,7 +6377,7 @@
         <v>94</v>
       </c>
       <c r="H34" s="176" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I34" s="21" t="s">
         <v>103</v>
@@ -6394,7 +6393,7 @@
       <c r="N34" s="60"/>
       <c r="O34" s="156"/>
       <c r="P34" s="172" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="Q34" s="59" t="s">
         <v>77</v>
@@ -6403,7 +6402,7 @@
       <c r="S34" s="63"/>
       <c r="T34" s="157"/>
       <c r="U34" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
       <c r="V34">
         <v>100</v>
@@ -6418,19 +6417,19 @@
     </row>
     <row r="35" spans="1:29" s="160" customFormat="1" ht="25" customHeight="1">
       <c r="A35" s="40" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="B35" s="56" t="s">
         <v>37</v>
       </c>
       <c r="C35" s="57" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D35" s="30" t="s">
         <v>290</v>
       </c>
       <c r="E35" s="58" t="s">
-        <v>473</v>
+        <v>447</v>
       </c>
       <c r="F35" s="57" t="s">
         <v>77</v>
@@ -6439,7 +6438,7 @@
         <v>94</v>
       </c>
       <c r="H35" s="176" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I35" s="21" t="s">
         <v>103</v>
@@ -6464,7 +6463,7 @@
       <c r="S35" s="63"/>
       <c r="T35" s="157"/>
       <c r="U35" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
       <c r="V35">
         <v>100</v>
@@ -6479,19 +6478,19 @@
     </row>
     <row r="36" spans="1:29" s="161" customFormat="1" ht="25" customHeight="1">
       <c r="A36" s="40" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="B36" s="56" t="s">
         <v>37</v>
       </c>
       <c r="C36" s="57" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D36" s="30" t="s">
         <v>290</v>
       </c>
       <c r="E36" s="58" t="s">
-        <v>473</v>
+        <v>447</v>
       </c>
       <c r="F36" s="57" t="s">
         <v>77</v>
@@ -6500,7 +6499,7 @@
         <v>94</v>
       </c>
       <c r="H36" s="176" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I36" s="21" t="s">
         <v>103</v>
@@ -6516,7 +6515,7 @@
       <c r="N36" s="60"/>
       <c r="O36" s="156"/>
       <c r="P36" s="31" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="Q36" s="59" t="s">
         <v>77</v>
@@ -6525,7 +6524,7 @@
       <c r="S36" s="63"/>
       <c r="T36" s="157"/>
       <c r="U36" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
       <c r="V36">
         <v>100</v>
@@ -6540,19 +6539,19 @@
     </row>
     <row r="37" spans="1:29" s="161" customFormat="1" ht="25" customHeight="1">
       <c r="A37" s="40" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="B37" s="56" t="s">
         <v>37</v>
       </c>
       <c r="C37" s="57" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D37" s="30" t="s">
         <v>290</v>
       </c>
       <c r="E37" s="58" t="s">
-        <v>473</v>
+        <v>447</v>
       </c>
       <c r="F37" s="57" t="s">
         <v>77</v>
@@ -6561,7 +6560,7 @@
         <v>94</v>
       </c>
       <c r="H37" s="176" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I37" s="21" t="s">
         <v>103</v>
@@ -6586,7 +6585,7 @@
       <c r="S37" s="63"/>
       <c r="T37" s="157"/>
       <c r="U37" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
       <c r="V37">
         <v>100</v>
@@ -6601,19 +6600,19 @@
     </row>
     <row r="38" spans="1:29" s="161" customFormat="1" ht="25" customHeight="1">
       <c r="A38" s="40" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B38" s="56" t="s">
         <v>37</v>
       </c>
       <c r="C38" s="57" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D38" s="30" t="s">
         <v>290</v>
       </c>
       <c r="E38" s="58" t="s">
-        <v>473</v>
+        <v>447</v>
       </c>
       <c r="F38" s="57" t="s">
         <v>77</v>
@@ -6622,7 +6621,7 @@
         <v>94</v>
       </c>
       <c r="H38" s="176" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I38" s="21" t="s">
         <v>103</v>
@@ -6647,7 +6646,7 @@
       <c r="S38" s="63"/>
       <c r="T38" s="157"/>
       <c r="U38" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
       <c r="V38">
         <v>100</v>
@@ -6662,19 +6661,19 @@
     </row>
     <row r="39" spans="1:29" ht="25" customHeight="1">
       <c r="A39" s="40" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="B39" s="56" t="s">
         <v>37</v>
       </c>
       <c r="C39" s="57" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D39" s="30" t="s">
         <v>290</v>
       </c>
       <c r="E39" s="58" t="s">
-        <v>473</v>
+        <v>447</v>
       </c>
       <c r="F39" s="57" t="s">
         <v>77</v>
@@ -6683,7 +6682,7 @@
         <v>94</v>
       </c>
       <c r="H39" s="176" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I39" s="21" t="s">
         <v>103</v>
@@ -6708,7 +6707,7 @@
       <c r="S39" s="63"/>
       <c r="T39" s="157"/>
       <c r="U39" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
       <c r="V39">
         <v>100</v>
@@ -6723,19 +6722,19 @@
     </row>
     <row r="40" spans="1:29" ht="25" customHeight="1">
       <c r="A40" s="40" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="B40" s="56" t="s">
         <v>37</v>
       </c>
       <c r="C40" s="57" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D40" s="30" t="s">
         <v>290</v>
       </c>
       <c r="E40" s="58" t="s">
-        <v>473</v>
+        <v>447</v>
       </c>
       <c r="F40" s="57" t="s">
         <v>77</v>
@@ -6744,7 +6743,7 @@
         <v>94</v>
       </c>
       <c r="H40" s="176" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I40" s="21" t="s">
         <v>103</v>
@@ -6760,7 +6759,7 @@
       <c r="N40" s="60"/>
       <c r="O40" s="156"/>
       <c r="P40" s="172" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="Q40" s="59" t="s">
         <v>77</v>
@@ -6769,7 +6768,7 @@
       <c r="S40" s="63"/>
       <c r="T40" s="157"/>
       <c r="U40" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
       <c r="V40">
         <v>100</v>
@@ -6784,19 +6783,19 @@
     </row>
     <row r="41" spans="1:29" ht="25" customHeight="1">
       <c r="A41" s="40" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="B41" s="56" t="s">
         <v>37</v>
       </c>
       <c r="C41" s="57" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D41" s="30" t="s">
         <v>290</v>
       </c>
       <c r="E41" s="58" t="s">
-        <v>473</v>
+        <v>447</v>
       </c>
       <c r="F41" s="57" t="s">
         <v>77</v>
@@ -6805,7 +6804,7 @@
         <v>94</v>
       </c>
       <c r="H41" s="176" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I41" s="21" t="s">
         <v>103</v>
@@ -6830,7 +6829,7 @@
       <c r="S41" s="63"/>
       <c r="T41" s="157"/>
       <c r="U41" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
       <c r="V41">
         <v>100</v>
@@ -6845,19 +6844,19 @@
     </row>
     <row r="42" spans="1:29" ht="25" customHeight="1">
       <c r="A42" s="40" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="B42" s="56" t="s">
         <v>37</v>
       </c>
       <c r="C42" s="57" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D42" s="30" t="s">
         <v>290</v>
       </c>
       <c r="E42" s="58" t="s">
-        <v>473</v>
+        <v>447</v>
       </c>
       <c r="F42" s="57" t="s">
         <v>77</v>
@@ -6866,7 +6865,7 @@
         <v>94</v>
       </c>
       <c r="H42" s="176" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I42" s="21" t="s">
         <v>103</v>
@@ -6891,7 +6890,7 @@
       <c r="S42" s="63"/>
       <c r="T42" s="157"/>
       <c r="U42" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
       <c r="V42">
         <v>100</v>
@@ -6906,19 +6905,19 @@
     </row>
     <row r="43" spans="1:29" ht="25" customHeight="1">
       <c r="A43" s="40" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="B43" s="56" t="s">
         <v>37</v>
       </c>
       <c r="C43" s="57" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D43" s="30" t="s">
         <v>290</v>
       </c>
       <c r="E43" s="58" t="s">
-        <v>473</v>
+        <v>447</v>
       </c>
       <c r="F43" s="57" t="s">
         <v>77</v>
@@ -6927,7 +6926,7 @@
         <v>94</v>
       </c>
       <c r="H43" s="176" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I43" s="21" t="s">
         <v>103</v>
@@ -6952,7 +6951,7 @@
       <c r="S43" s="63"/>
       <c r="T43" s="157"/>
       <c r="U43" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
       <c r="V43">
         <v>100</v>
@@ -6967,19 +6966,19 @@
     </row>
     <row r="44" spans="1:29" ht="25" customHeight="1">
       <c r="A44" s="40" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="B44" s="56" t="s">
         <v>37</v>
       </c>
       <c r="C44" s="57" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D44" s="30" t="s">
         <v>290</v>
       </c>
       <c r="E44" s="58" t="s">
-        <v>473</v>
+        <v>447</v>
       </c>
       <c r="F44" s="57" t="s">
         <v>77</v>
@@ -6988,7 +6987,7 @@
         <v>94</v>
       </c>
       <c r="H44" s="176" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I44" s="21" t="s">
         <v>103</v>
@@ -7013,7 +7012,7 @@
       <c r="S44" s="63"/>
       <c r="T44" s="157"/>
       <c r="U44" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
       <c r="V44">
         <v>100</v>
@@ -7028,19 +7027,19 @@
     </row>
     <row r="45" spans="1:29" ht="25" customHeight="1">
       <c r="A45" s="40" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="B45" s="56" t="s">
         <v>37</v>
       </c>
       <c r="C45" s="57" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D45" s="30" t="s">
         <v>290</v>
       </c>
       <c r="E45" s="58" t="s">
-        <v>473</v>
+        <v>447</v>
       </c>
       <c r="F45" s="57" t="s">
         <v>77</v>
@@ -7049,7 +7048,7 @@
         <v>94</v>
       </c>
       <c r="H45" s="176" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I45" s="21" t="s">
         <v>103</v>
@@ -7074,7 +7073,7 @@
       <c r="S45" s="63"/>
       <c r="T45" s="157"/>
       <c r="U45" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
       <c r="V45">
         <v>100</v>
@@ -7089,19 +7088,19 @@
     </row>
     <row r="46" spans="1:29" ht="25" customHeight="1">
       <c r="A46" s="40" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="B46" s="56" t="s">
         <v>37</v>
       </c>
       <c r="C46" s="57" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D46" s="30" t="s">
         <v>290</v>
       </c>
       <c r="E46" s="58" t="s">
-        <v>473</v>
+        <v>447</v>
       </c>
       <c r="F46" s="57" t="s">
         <v>77</v>
@@ -7110,7 +7109,7 @@
         <v>94</v>
       </c>
       <c r="H46" s="176" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I46" s="21" t="s">
         <v>103</v>
@@ -7126,7 +7125,7 @@
       <c r="N46" s="60"/>
       <c r="O46" s="156"/>
       <c r="P46" s="172" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="Q46" s="59" t="s">
         <v>77</v>
@@ -7135,7 +7134,7 @@
       <c r="S46" s="63"/>
       <c r="T46" s="157"/>
       <c r="U46" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
       <c r="V46">
         <v>100</v>
@@ -7150,19 +7149,19 @@
     </row>
     <row r="47" spans="1:29" ht="25" customHeight="1">
       <c r="A47" s="40" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="B47" s="56" t="s">
         <v>37</v>
       </c>
       <c r="C47" s="57" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D47" s="30" t="s">
         <v>290</v>
       </c>
       <c r="E47" s="58" t="s">
-        <v>473</v>
+        <v>447</v>
       </c>
       <c r="F47" s="57" t="s">
         <v>77</v>
@@ -7171,7 +7170,7 @@
         <v>94</v>
       </c>
       <c r="H47" s="176" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I47" s="21" t="s">
         <v>103</v>
@@ -7196,7 +7195,7 @@
       <c r="S47" s="63"/>
       <c r="T47" s="157"/>
       <c r="U47" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
       <c r="V47">
         <v>100</v>
@@ -7211,19 +7210,19 @@
     </row>
     <row r="48" spans="1:29" ht="25" customHeight="1">
       <c r="A48" s="40" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="B48" s="56" t="s">
         <v>37</v>
       </c>
       <c r="C48" s="57" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D48" s="30" t="s">
         <v>290</v>
       </c>
       <c r="E48" s="58" t="s">
-        <v>473</v>
+        <v>447</v>
       </c>
       <c r="F48" s="57" t="s">
         <v>77</v>
@@ -7232,7 +7231,7 @@
         <v>94</v>
       </c>
       <c r="H48" s="176" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I48" s="21" t="s">
         <v>103</v>
@@ -7257,7 +7256,7 @@
       <c r="S48" s="63"/>
       <c r="T48" s="157"/>
       <c r="U48" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
       <c r="V48">
         <v>100</v>
@@ -7272,19 +7271,19 @@
     </row>
     <row r="49" spans="1:29" ht="25" customHeight="1">
       <c r="A49" s="40" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="B49" s="56" t="s">
         <v>37</v>
       </c>
       <c r="C49" s="57" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D49" s="30" t="s">
         <v>290</v>
       </c>
       <c r="E49" s="58" t="s">
-        <v>473</v>
+        <v>447</v>
       </c>
       <c r="F49" s="57" t="s">
         <v>77</v>
@@ -7293,7 +7292,7 @@
         <v>94</v>
       </c>
       <c r="H49" s="176" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I49" s="21" t="s">
         <v>103</v>
@@ -7318,7 +7317,7 @@
       <c r="S49" s="63"/>
       <c r="T49" s="157"/>
       <c r="U49" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
       <c r="V49">
         <v>100</v>
@@ -7333,19 +7332,19 @@
     </row>
     <row r="50" spans="1:29" s="162" customFormat="1" ht="25" customHeight="1">
       <c r="A50" s="40" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="B50" s="56" t="s">
         <v>37</v>
       </c>
       <c r="C50" s="57" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D50" s="30" t="s">
         <v>290</v>
       </c>
       <c r="E50" s="58" t="s">
-        <v>473</v>
+        <v>447</v>
       </c>
       <c r="F50" s="57" t="s">
         <v>77</v>
@@ -7354,7 +7353,7 @@
         <v>94</v>
       </c>
       <c r="H50" s="176" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I50" s="21" t="s">
         <v>103</v>
@@ -7379,7 +7378,7 @@
       <c r="S50" s="63"/>
       <c r="T50" s="157"/>
       <c r="U50" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
       <c r="V50">
         <v>100</v>
@@ -7394,19 +7393,19 @@
     </row>
     <row r="51" spans="1:29" s="162" customFormat="1" ht="25" customHeight="1">
       <c r="A51" s="40" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="B51" s="56" t="s">
         <v>37</v>
       </c>
       <c r="C51" s="57" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D51" s="30" t="s">
         <v>290</v>
       </c>
       <c r="E51" s="58" t="s">
-        <v>473</v>
+        <v>447</v>
       </c>
       <c r="F51" s="57" t="s">
         <v>77</v>
@@ -7415,7 +7414,7 @@
         <v>94</v>
       </c>
       <c r="H51" s="176" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I51" s="21" t="s">
         <v>103</v>
@@ -7440,7 +7439,7 @@
       <c r="S51" s="63"/>
       <c r="T51" s="157"/>
       <c r="U51" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
       <c r="V51">
         <v>100</v>
@@ -7455,19 +7454,19 @@
     </row>
     <row r="52" spans="1:29" s="162" customFormat="1" ht="25" customHeight="1">
       <c r="A52" s="40" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="B52" s="56" t="s">
         <v>37</v>
       </c>
       <c r="C52" s="57" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D52" s="30" t="s">
         <v>290</v>
       </c>
       <c r="E52" s="58" t="s">
-        <v>473</v>
+        <v>447</v>
       </c>
       <c r="F52" s="57" t="s">
         <v>77</v>
@@ -7476,7 +7475,7 @@
         <v>94</v>
       </c>
       <c r="H52" s="176" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I52" s="21" t="s">
         <v>103</v>
@@ -7501,7 +7500,7 @@
       <c r="S52" s="63"/>
       <c r="T52" s="157"/>
       <c r="U52" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
       <c r="V52">
         <v>100</v>
@@ -7516,19 +7515,19 @@
     </row>
     <row r="53" spans="1:29" s="162" customFormat="1" ht="25" customHeight="1">
       <c r="A53" s="40" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="B53" s="56" t="s">
         <v>37</v>
       </c>
       <c r="C53" s="57" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D53" s="30" t="s">
         <v>290</v>
       </c>
       <c r="E53" s="58" t="s">
-        <v>473</v>
+        <v>447</v>
       </c>
       <c r="F53" s="57" t="s">
         <v>77</v>
@@ -7537,7 +7536,7 @@
         <v>94</v>
       </c>
       <c r="H53" s="176" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I53" s="21" t="s">
         <v>103</v>
@@ -7562,7 +7561,7 @@
       <c r="S53" s="63"/>
       <c r="T53" s="157"/>
       <c r="U53" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
       <c r="V53">
         <v>100</v>
@@ -7577,19 +7576,19 @@
     </row>
     <row r="54" spans="1:29" s="162" customFormat="1" ht="25" customHeight="1">
       <c r="A54" s="40" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="B54" s="56" t="s">
         <v>37</v>
       </c>
       <c r="C54" s="57" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D54" s="30" t="s">
         <v>290</v>
       </c>
       <c r="E54" s="58" t="s">
-        <v>473</v>
+        <v>447</v>
       </c>
       <c r="F54" s="57" t="s">
         <v>77</v>
@@ -7598,7 +7597,7 @@
         <v>94</v>
       </c>
       <c r="H54" s="176" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I54" s="21" t="s">
         <v>103</v>
@@ -7623,7 +7622,7 @@
       <c r="S54" s="63"/>
       <c r="T54" s="157"/>
       <c r="U54" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
       <c r="V54">
         <v>100</v>
@@ -7638,19 +7637,19 @@
     </row>
     <row r="55" spans="1:29" s="162" customFormat="1" ht="25" customHeight="1">
       <c r="A55" s="40" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="B55" s="56" t="s">
         <v>37</v>
       </c>
       <c r="C55" s="57" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D55" s="30" t="s">
         <v>290</v>
       </c>
       <c r="E55" s="58" t="s">
-        <v>473</v>
+        <v>447</v>
       </c>
       <c r="F55" s="57" t="s">
         <v>77</v>
@@ -7659,7 +7658,7 @@
         <v>94</v>
       </c>
       <c r="H55" s="176" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I55" s="21" t="s">
         <v>103</v>
@@ -7684,7 +7683,7 @@
       <c r="S55" s="63"/>
       <c r="T55" s="157"/>
       <c r="U55" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
       <c r="V55">
         <v>100</v>
@@ -7699,19 +7698,19 @@
     </row>
     <row r="56" spans="1:29" s="162" customFormat="1" ht="25" customHeight="1">
       <c r="A56" s="40" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="B56" s="56" t="s">
         <v>37</v>
       </c>
       <c r="C56" s="57" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D56" s="30" t="s">
         <v>290</v>
       </c>
       <c r="E56" s="58" t="s">
-        <v>473</v>
+        <v>447</v>
       </c>
       <c r="F56" s="57" t="s">
         <v>77</v>
@@ -7720,7 +7719,7 @@
         <v>94</v>
       </c>
       <c r="H56" s="176" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I56" s="21" t="s">
         <v>103</v>
@@ -7745,7 +7744,7 @@
       <c r="S56" s="63"/>
       <c r="T56" s="157"/>
       <c r="U56" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
       <c r="V56">
         <v>100</v>
@@ -7760,19 +7759,19 @@
     </row>
     <row r="57" spans="1:29" s="162" customFormat="1" ht="25" customHeight="1">
       <c r="A57" s="40" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="B57" s="56" t="s">
         <v>37</v>
       </c>
       <c r="C57" s="57" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D57" s="30" t="s">
         <v>290</v>
       </c>
       <c r="E57" s="58" t="s">
-        <v>473</v>
+        <v>447</v>
       </c>
       <c r="F57" s="57" t="s">
         <v>77</v>
@@ -7781,7 +7780,7 @@
         <v>94</v>
       </c>
       <c r="H57" s="176" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I57" s="21" t="s">
         <v>103</v>
@@ -7806,7 +7805,7 @@
       <c r="S57" s="63"/>
       <c r="T57" s="157"/>
       <c r="U57" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
       <c r="V57">
         <v>100</v>
@@ -7821,19 +7820,19 @@
     </row>
     <row r="58" spans="1:29" s="162" customFormat="1" ht="25" customHeight="1">
       <c r="A58" s="40" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="B58" s="56" t="s">
         <v>37</v>
       </c>
       <c r="C58" s="57" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D58" s="30" t="s">
         <v>290</v>
       </c>
       <c r="E58" s="58" t="s">
-        <v>473</v>
+        <v>447</v>
       </c>
       <c r="F58" s="57" t="s">
         <v>77</v>
@@ -7842,7 +7841,7 @@
         <v>94</v>
       </c>
       <c r="H58" s="176" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I58" s="21" t="s">
         <v>103</v>
@@ -7867,7 +7866,7 @@
       <c r="S58" s="63"/>
       <c r="T58" s="157"/>
       <c r="U58" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
       <c r="V58">
         <v>100</v>
@@ -7882,19 +7881,19 @@
     </row>
     <row r="59" spans="1:29" s="162" customFormat="1" ht="25" customHeight="1">
       <c r="A59" s="40" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="B59" s="56" t="s">
         <v>37</v>
       </c>
       <c r="C59" s="57" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D59" s="30" t="s">
         <v>290</v>
       </c>
       <c r="E59" s="58" t="s">
-        <v>473</v>
+        <v>447</v>
       </c>
       <c r="F59" s="57" t="s">
         <v>77</v>
@@ -7903,7 +7902,7 @@
         <v>94</v>
       </c>
       <c r="H59" s="176" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I59" s="21" t="s">
         <v>103</v>
@@ -7928,7 +7927,7 @@
       <c r="S59" s="63"/>
       <c r="T59" s="157"/>
       <c r="U59" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
       <c r="V59">
         <v>100</v>
@@ -7943,19 +7942,19 @@
     </row>
     <row r="60" spans="1:29" s="162" customFormat="1" ht="25" customHeight="1">
       <c r="A60" s="40" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="B60" s="56" t="s">
         <v>37</v>
       </c>
       <c r="C60" s="57" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D60" s="30" t="s">
         <v>290</v>
       </c>
       <c r="E60" s="58" t="s">
-        <v>473</v>
+        <v>447</v>
       </c>
       <c r="F60" s="57" t="s">
         <v>77</v>
@@ -7964,7 +7963,7 @@
         <v>94</v>
       </c>
       <c r="H60" s="176" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I60" s="21" t="s">
         <v>103</v>
@@ -7989,7 +7988,7 @@
       <c r="S60" s="63"/>
       <c r="T60" s="157"/>
       <c r="U60" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
       <c r="V60">
         <v>100</v>
@@ -8004,19 +8003,19 @@
     </row>
     <row r="61" spans="1:29" s="162" customFormat="1" ht="25" customHeight="1">
       <c r="A61" s="40" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="B61" s="56" t="s">
         <v>37</v>
       </c>
       <c r="C61" s="57" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D61" s="30" t="s">
         <v>290</v>
       </c>
       <c r="E61" s="58" t="s">
-        <v>473</v>
+        <v>447</v>
       </c>
       <c r="F61" s="57" t="s">
         <v>77</v>
@@ -8025,7 +8024,7 @@
         <v>94</v>
       </c>
       <c r="H61" s="176" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I61" s="21" t="s">
         <v>103</v>
@@ -8050,7 +8049,7 @@
       <c r="S61" s="63"/>
       <c r="T61" s="157"/>
       <c r="U61" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
       <c r="V61">
         <v>100</v>
@@ -8065,19 +8064,19 @@
     </row>
     <row r="62" spans="1:29" s="162" customFormat="1" ht="25" customHeight="1">
       <c r="A62" s="40" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="B62" s="56" t="s">
         <v>37</v>
       </c>
       <c r="C62" s="57" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D62" s="30" t="s">
         <v>290</v>
       </c>
       <c r="E62" s="58" t="s">
-        <v>473</v>
+        <v>447</v>
       </c>
       <c r="F62" s="57" t="s">
         <v>77</v>
@@ -8086,7 +8085,7 @@
         <v>94</v>
       </c>
       <c r="H62" s="176" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I62" s="21" t="s">
         <v>103</v>
@@ -8111,7 +8110,7 @@
       <c r="S62" s="63"/>
       <c r="T62" s="157"/>
       <c r="U62" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
       <c r="V62">
         <v>100</v>
@@ -8126,19 +8125,19 @@
     </row>
     <row r="63" spans="1:29" s="163" customFormat="1" ht="25" customHeight="1">
       <c r="A63" s="40" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="B63" s="56" t="s">
         <v>37</v>
       </c>
       <c r="C63" s="57" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D63" s="30" t="s">
         <v>290</v>
       </c>
       <c r="E63" s="58" t="s">
-        <v>473</v>
+        <v>447</v>
       </c>
       <c r="F63" s="57" t="s">
         <v>77</v>
@@ -8147,7 +8146,7 @@
         <v>94</v>
       </c>
       <c r="H63" s="176" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I63" s="21" t="s">
         <v>103</v>
@@ -8172,7 +8171,7 @@
       <c r="S63" s="63"/>
       <c r="T63" s="157"/>
       <c r="U63" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
       <c r="V63">
         <v>100</v>
@@ -8187,19 +8186,19 @@
     </row>
     <row r="64" spans="1:29" s="163" customFormat="1" ht="25" customHeight="1">
       <c r="A64" s="40" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="B64" s="56" t="s">
         <v>37</v>
       </c>
       <c r="C64" s="57" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D64" s="30" t="s">
         <v>290</v>
       </c>
       <c r="E64" s="58" t="s">
-        <v>473</v>
+        <v>447</v>
       </c>
       <c r="F64" s="57" t="s">
         <v>77</v>
@@ -8208,7 +8207,7 @@
         <v>94</v>
       </c>
       <c r="H64" s="176" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I64" s="21" t="s">
         <v>103</v>
@@ -8233,7 +8232,7 @@
       <c r="S64" s="63"/>
       <c r="T64" s="157"/>
       <c r="U64" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
       <c r="V64">
         <v>100</v>
@@ -8248,19 +8247,19 @@
     </row>
     <row r="65" spans="1:29" s="163" customFormat="1" ht="25" customHeight="1">
       <c r="A65" s="40" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="B65" s="56" t="s">
         <v>37</v>
       </c>
       <c r="C65" s="57" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D65" s="30" t="s">
         <v>290</v>
       </c>
       <c r="E65" s="58" t="s">
-        <v>473</v>
+        <v>447</v>
       </c>
       <c r="F65" s="57" t="s">
         <v>77</v>
@@ -8269,7 +8268,7 @@
         <v>94</v>
       </c>
       <c r="H65" s="176" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I65" s="21" t="s">
         <v>103</v>
@@ -8294,7 +8293,7 @@
       <c r="S65" s="63"/>
       <c r="T65" s="157"/>
       <c r="U65" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
       <c r="V65">
         <v>100</v>
@@ -8309,19 +8308,19 @@
     </row>
     <row r="66" spans="1:29" s="163" customFormat="1" ht="25" customHeight="1">
       <c r="A66" s="40" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="B66" s="56" t="s">
         <v>37</v>
       </c>
       <c r="C66" s="57" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D66" s="30" t="s">
         <v>290</v>
       </c>
       <c r="E66" s="58" t="s">
-        <v>473</v>
+        <v>447</v>
       </c>
       <c r="F66" s="57" t="s">
         <v>77</v>
@@ -8330,7 +8329,7 @@
         <v>94</v>
       </c>
       <c r="H66" s="176" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I66" s="21" t="s">
         <v>103</v>
@@ -8355,7 +8354,7 @@
       <c r="S66" s="63"/>
       <c r="T66" s="157"/>
       <c r="U66" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
       <c r="V66">
         <v>100</v>
@@ -18750,11 +18749,11 @@
     <mergeCell ref="U9:V9"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L15:L394" xr:uid="{8D7FB32C-3427-2549-AEE5-4D4BF06D9402}">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K15:K394" xr:uid="{1590E11D-D86A-FC45-B310-31384307009E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K15:K66" xr:uid="{BB8DFD3E-D9F0-524A-9580-92533DF1CDEE}">
       <formula1>$I$3:$I$7</formula1>
     </dataValidation>
   </dataValidations>
@@ -18769,96 +18768,186 @@
   <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="15">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="30">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3D101648-861B-C44F-9EA1-C1DFE8FE106F}">
           <x14:formula1>
             <xm:f>'Drop down lists'!$E$3:$E$103</xm:f>
           </x14:formula1>
-          <xm:sqref>B15:B394</xm:sqref>
+          <xm:sqref>B67:B394</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C94ACB21-8575-E349-97C4-9188D8686827}">
           <x14:formula1>
             <xm:f>'Drop down lists'!$D$3:$D$5</xm:f>
           </x14:formula1>
-          <xm:sqref>F15:F394</xm:sqref>
+          <xm:sqref>F67:F394</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7604AA96-D86E-8C49-95DF-A8C3A1F9AA6D}">
           <x14:formula1>
             <xm:f>'Drop down lists'!$K$3:$K$98</xm:f>
           </x14:formula1>
-          <xm:sqref>N15:N394</xm:sqref>
+          <xm:sqref>N67:N394</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0D030033-729E-3940-A2F0-6EDE030A4235}">
           <x14:formula1>
             <xm:f>'Drop down lists'!$A$3:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>K15:K394</xm:sqref>
+          <xm:sqref>K67:K394</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0AB04B6F-DD6D-D24E-8CD7-22596E657E09}">
           <x14:formula1>
             <xm:f>'Drop down lists'!$M$3:$M$102</xm:f>
           </x14:formula1>
-          <xm:sqref>W15:W394</xm:sqref>
+          <xm:sqref>W67:W394</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8F8862D0-5953-E940-A175-C24E85C556BA}">
           <x14:formula1>
             <xm:f>'Drop down lists'!$H$3:$H$4</xm:f>
           </x14:formula1>
-          <xm:sqref>G15:G394</xm:sqref>
+          <xm:sqref>G67:G394</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{049A1BE4-E9DE-0D4B-868D-02E76474AFA5}">
           <x14:formula1>
             <xm:f>'Drop down lists'!$J$3:$J$5</xm:f>
           </x14:formula1>
-          <xm:sqref>Q15:Q394</xm:sqref>
+          <xm:sqref>Q67:Q394</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{08D5E3A7-E133-A54A-8435-B3FB6647D742}">
           <x14:formula1>
             <xm:f>'Drop down lists'!$B$3:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>C15:C394</xm:sqref>
+          <xm:sqref>C67:C394</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BEC08EC3-9F4B-6843-8C63-E99D96F3B80C}">
           <x14:formula1>
             <xm:f>'Drop down lists'!$I$3:$I$7</xm:f>
           </x14:formula1>
-          <xm:sqref>I15:I394</xm:sqref>
+          <xm:sqref>I67:I394</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B9CE73CA-32E5-CD40-909B-B3388F139783}">
           <x14:formula1>
             <xm:f>'Drop down lists'!$M$3:$M$22</xm:f>
           </x14:formula1>
-          <xm:sqref>V15:V394</xm:sqref>
+          <xm:sqref>V67:V394</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AE62419B-1860-B240-A67A-B0DC077CD735}">
           <x14:formula1>
             <xm:f>'Drop down lists'!$N$3:$N$4</xm:f>
           </x14:formula1>
-          <xm:sqref>Z15:Z394</xm:sqref>
+          <xm:sqref>Z67:Z394</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{69271FA2-0E38-394D-9669-1C78E1B7E49C}">
           <x14:formula1>
             <xm:f>'Drop down lists'!$F$3:$F$4</xm:f>
           </x14:formula1>
-          <xm:sqref>G15:G394 J15:K394</xm:sqref>
+          <xm:sqref>G67:G394 J67:K394</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7180FD00-41DF-8643-B71E-0C3BEC5EA22D}">
           <x14:formula1>
             <xm:f>'Drop down lists'!$L$3:$L$54</xm:f>
           </x14:formula1>
-          <xm:sqref>P15:P394</xm:sqref>
+          <xm:sqref>P67:P394</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Make sure the information matches the valid Application tags in the information tab" xr:uid="{420DCC94-8F2C-ED4B-99EB-812BBC021162}">
           <x14:formula1>
             <xm:f>'Drop down lists'!$C$3:$C$24</xm:f>
           </x14:formula1>
-          <xm:sqref>D15:D394</xm:sqref>
+          <xm:sqref>D67:D394</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{88BF134A-5ECF-2B44-AD8A-3C294F943CA6}">
           <x14:formula1>
             <xm:f>'Drop down lists'!$G$3:$G$13</xm:f>
           </x14:formula1>
-          <xm:sqref>H15:H394 K15:K394</xm:sqref>
+          <xm:sqref>H67:H394 K67:K394</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E170383C-D990-6940-8BFE-920B30D13531}">
+          <x14:formula1>
+            <xm:f>'Drop down lists'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>H15:H66 K15:K66</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Make sure the information matches the valid Application tags in the information tab" xr:uid="{34EAD94A-AA5C-4F41-A676-725530E13C78}">
+          <x14:formula1>
+            <xm:f>'Drop down lists'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>D15:D66</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3B554F4A-B943-DA43-AE50-24B0EE39D5FA}">
+          <x14:formula1>
+            <xm:f>'Drop down lists'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>P15:P66</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E59B50CE-CFBB-414D-BAD8-C889AA6E543B}">
+          <x14:formula1>
+            <xm:f>'Drop down lists'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>G15:G66 J15:K66</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A84DF610-A292-1C4D-8667-B7DEB19E1B84}">
+          <x14:formula1>
+            <xm:f>'Drop down lists'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>Z15:Z66</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{11A3E340-1D67-0248-BF3A-0A6AF1AEF8D1}">
+          <x14:formula1>
+            <xm:f>'Drop down lists'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>V15:V66</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D6AF4A82-31A5-9F4E-A0DA-5C4997B8B0EC}">
+          <x14:formula1>
+            <xm:f>'Drop down lists'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>I15:I66</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6DFAE586-CEDC-534A-859B-3237248A7018}">
+          <x14:formula1>
+            <xm:f>'Drop down lists'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>C15:C66</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5C3A9F40-1552-7E44-A6DB-572F86C75086}">
+          <x14:formula1>
+            <xm:f>'Drop down lists'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>Q15:Q66</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3C01989F-8E8B-1942-9D81-AB4D614C14C7}">
+          <x14:formula1>
+            <xm:f>'Drop down lists'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>G15:G66</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D44A5EE7-8818-904B-9AF2-C20D9DBF3EA3}">
+          <x14:formula1>
+            <xm:f>'Drop down lists'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>W15:W66</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{315E2C67-63EE-9A40-A54F-D47BB5D9040A}">
+          <x14:formula1>
+            <xm:f>'Drop down lists'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>K15:K66</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{023D02A1-E4E9-CD44-AA93-4686886D2D88}">
+          <x14:formula1>
+            <xm:f>'Drop down lists'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>N15:N66</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5167AA4C-ED19-604A-A676-DF4CCC69E1E6}">
+          <x14:formula1>
+            <xm:f>'Drop down lists'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>F15:F66</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6418128A-38BD-DA48-980D-16E47D838782}">
+          <x14:formula1>
+            <xm:f>'Drop down lists'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B15:B66</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -18874,7 +18963,7 @@
   <dimension ref="A1:AK103"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3:M22"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -18949,7 +19038,7 @@
         <v>253</v>
       </c>
       <c r="N2" s="55" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="O2" s="44"/>
       <c r="P2" s="43"/>
@@ -18980,7 +19069,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C3" s="30" t="s">
         <v>288</v>
@@ -19016,7 +19105,7 @@
         <v>5</v>
       </c>
       <c r="N3" s="31" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="O3" s="22"/>
       <c r="P3" s="22"/>
@@ -19067,7 +19156,7 @@
         <v>10</v>
       </c>
       <c r="N4" s="31" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="O4" s="22"/>
       <c r="P4" s="22"/>
@@ -19123,7 +19212,7 @@
     <row r="6" spans="1:37">
       <c r="A6" s="32"/>
       <c r="B6" s="38" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C6" s="30" t="s">
         <v>291</v>
@@ -19168,10 +19257,10 @@
       </c>
       <c r="F7" s="22"/>
       <c r="G7" s="42" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="I7" s="176" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K7" s="175" t="s">
         <v>31</v>
@@ -19341,7 +19430,7 @@
       </c>
       <c r="F12" s="22"/>
       <c r="G12" s="176" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H12" s="22"/>
       <c r="I12" s="22"/>
@@ -19376,7 +19465,7 @@
       </c>
       <c r="F13" s="22"/>
       <c r="G13" s="176" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H13" s="22"/>
       <c r="I13" s="22"/>
@@ -19403,7 +19492,7 @@
       <c r="A14" s="32"/>
       <c r="B14" s="33"/>
       <c r="C14" s="30" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="21" t="s">
@@ -19453,7 +19542,7 @@
         <v>117</v>
       </c>
       <c r="L15" s="172" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="M15">
         <v>65</v>
@@ -19471,7 +19560,7 @@
       <c r="A16" s="32"/>
       <c r="B16" s="34"/>
       <c r="C16" s="30" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="21" t="s">
@@ -19504,7 +19593,7 @@
       <c r="A17" s="32"/>
       <c r="B17" s="34"/>
       <c r="C17" s="53" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="21" t="s">
@@ -19570,7 +19659,7 @@
       <c r="A19" s="32"/>
       <c r="B19" s="34"/>
       <c r="C19" s="30" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D19" s="22"/>
       <c r="E19" s="21" t="s">
@@ -19636,7 +19725,7 @@
       <c r="A21" s="32"/>
       <c r="B21" s="34"/>
       <c r="C21" s="30" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="21" t="s">
@@ -19684,7 +19773,7 @@
         <v>110</v>
       </c>
       <c r="L22" s="172" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="M22">
         <v>100</v>
@@ -19747,7 +19836,7 @@
         <v>112</v>
       </c>
       <c r="L24" s="31" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="N24" s="22"/>
       <c r="O24" s="22"/>
@@ -19855,7 +19944,7 @@
         <v>131</v>
       </c>
       <c r="L28" s="172" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="N28" s="22"/>
       <c r="O28" s="22"/>
@@ -20022,7 +20111,7 @@
         <v>185</v>
       </c>
       <c r="L34" s="172" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="N34" s="22"/>
       <c r="O34" s="22"/>
@@ -21780,6 +21869,7 @@
       <c r="U103" s="22"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="AlryAM3vCnGy9MjXjTugKlzYaBLXZjLFYA9egPMQNhCW9Rq5MHQApudHrT0cbI+iO4Nvz6A4Rff9jagAqBw+Hw==" saltValue="r2WjgYLC3iN7hYZov2+P2A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <sortState ref="L3:L44">
     <sortCondition ref="L44"/>
   </sortState>
